--- a/data_preprocessing/tiefenerhebung/TE_data/heating_supply_system_more_than_one_adj_Auszug.xlsx
+++ b/data_preprocessing/tiefenerhebung/TE_data/heating_supply_system_more_than_one_adj_Auszug.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Masterarbeit\ABGABE\Dynamic ISO Building Simulator\iso_simulator\auxiliary\TE_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/DIBS---Dynamic-ISO-Building-Simulator/data_preprocessing/tiefenerhebung/TE_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_EB0385D9DAF9946E279AA542FD84BDA92A741D37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C68079E2-7D95-427A-B810-7B6E52204BD6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="33315" yWindow="2325" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>scr_gebaeude_id</t>
   </si>
@@ -117,18 +118,12 @@
     <t>district</t>
   </si>
   <si>
-    <t>l_temp_bef95</t>
-  </si>
-  <si>
     <t>cond_imp</t>
   </si>
   <si>
     <t>cond_from95</t>
   </si>
   <si>
-    <t>l_temp_gas_from95</t>
-  </si>
-  <si>
     <t>chp_mini</t>
   </si>
   <si>
@@ -156,15 +151,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>hp_earth</t>
-  </si>
-  <si>
-    <t>el_power_mix</t>
-  </si>
-  <si>
-    <t>fix</t>
-  </si>
-  <si>
     <t>h_fuel_selected</t>
   </si>
   <si>
@@ -181,21 +167,6 @@
   </si>
   <si>
     <t>AB123456_0_11</t>
-  </si>
-  <si>
-    <t>AB123456_0_48</t>
-  </si>
-  <si>
-    <t>AB123456_0_40</t>
-  </si>
-  <si>
-    <t>AB123456_0_31</t>
-  </si>
-  <si>
-    <t>AB123456_0_23</t>
-  </si>
-  <si>
-    <t>AB123456_0_24</t>
   </si>
   <si>
     <t>AB123456_0_19</t>
@@ -204,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,6 +326,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -390,6 +378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,21 +570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,42 +673,42 @@
         <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>22.4</v>
@@ -712,39 +717,39 @@
         <v>29</v>
       </c>
       <c r="AE2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG2">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>20</v>
@@ -753,48 +758,48 @@
         <v>31</v>
       </c>
       <c r="AE3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AF3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AG3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
       </c>
       <c r="I4">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M4">
         <v>150</v>
@@ -803,236 +808,10 @@
         <v>30</v>
       </c>
       <c r="AE4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5">
-        <v>68</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5">
-        <v>370</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG5">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6">
-        <v>12.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6">
-        <v>12.5</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9">
-        <v>200</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG9">
-        <v>200</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data_preprocessing/tiefenerhebung/TE_data/heating_supply_system_more_than_one_adj_Auszug.xlsx
+++ b/data_preprocessing/tiefenerhebung/TE_data/heating_supply_system_more_than_one_adj_Auszug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/DIBS---Dynamic-ISO-Building-Simulator/data_preprocessing/tiefenerhebung/TE_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_EB0385D9DAF9946E279AA542FD84BDA92A741D37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C68079E2-7D95-427A-B810-7B6E52204BD6}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_EB0385D9DAF9946E279AA542FD84BDA92A741D37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02249EE4-C523-4F06-A9E6-D286F5CA797E}"/>
   <bookViews>
-    <workbookView xWindow="33315" yWindow="2325" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>scr_gebaeude_id</t>
   </si>
@@ -112,9 +112,6 @@
     <t>wood-chip_c_temp_buffer_from95</t>
   </si>
   <si>
-    <t>l_temp_from95</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
@@ -124,15 +121,9 @@
     <t>cond_from95</t>
   </si>
   <si>
-    <t>chp_mini</t>
-  </si>
-  <si>
     <t>wood_chip</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>distr_cog_fos</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
   </si>
   <si>
     <t>AB123456_0_11</t>
-  </si>
-  <si>
-    <t>AB123456_0_19</t>
   </si>
 </sst>
 </file>
@@ -571,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,42 +661,42 @@
         <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
       </c>
       <c r="I2">
         <v>22.4</v>
@@ -717,10 +705,10 @@
         <v>29</v>
       </c>
       <c r="AE2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG2">
         <v>23</v>
@@ -728,90 +716,43 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
       </c>
       <c r="I3">
         <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AG3">
         <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4">
-        <v>150</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data_preprocessing/tiefenerhebung/TE_data/heating_supply_system_more_than_one_adj_Auszug.xlsx
+++ b/data_preprocessing/tiefenerhebung/TE_data/heating_supply_system_more_than_one_adj_Auszug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/DIBS---Dynamic-ISO-Building-Simulator/data_preprocessing/tiefenerhebung/TE_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_EB0385D9DAF9946E279AA542FD84BDA92A741D37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02249EE4-C523-4F06-A9E6-D286F5CA797E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_EB0385D9DAF9946E279AA542FD84BDA92A741D37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{244C8ECB-9697-4B30-9078-B90239B348A3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33315" yWindow="2325" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>scr_gebaeude_id</t>
   </si>
@@ -112,6 +112,9 @@
     <t>wood-chip_c_temp_buffer_from95</t>
   </si>
   <si>
+    <t>l_temp_from95</t>
+  </si>
+  <si>
     <t>district</t>
   </si>
   <si>
@@ -121,9 +124,15 @@
     <t>cond_from95</t>
   </si>
   <si>
+    <t>chp_mini</t>
+  </si>
+  <si>
     <t>wood_chip</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>distr_cog_fos</t>
   </si>
   <si>
@@ -158,6 +167,9 @@
   </si>
   <si>
     <t>AB123456_0_11</t>
+  </si>
+  <si>
+    <t>AB123456_0_19</t>
   </si>
 </sst>
 </file>
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A5" sqref="A5:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,42 +673,42 @@
         <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>22.4</v>
@@ -705,10 +717,10 @@
         <v>29</v>
       </c>
       <c r="AE2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AF2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG2">
         <v>23</v>
@@ -716,43 +728,90 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AF3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AG3">
         <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>150</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
